--- a/files/questions_rag.xlsx
+++ b/files/questions_rag.xlsx
@@ -14,99 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
-  <si>
-    <t>Paper</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>Question</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Potential of the Synthetic Lethality Principle</t>
   </si>
   <si>
+    <t>Synthetic lethality as an engine for cancer drug target discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional characterization of SMARCA4 variants identified by targeted exome sequencing of 131,668 cancer patients </t>
+  </si>
+  <si>
+    <t>Emerging roles of pseudokinases</t>
+  </si>
+  <si>
     <t>Searching for synthetic lethality in cancer</t>
   </si>
   <si>
-    <t>Synthetic lethality as an engine for cancer drug target discovery</t>
-  </si>
-  <si>
-    <t>Emerging roles of pseudokinases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional characterization of SMARCA4 variants identified by targeted exome sequencing of 131,668 cancer patients </t>
-  </si>
-  <si>
     <t>Define synthetic lethality</t>
   </si>
   <si>
+    <t>Deletion of which gene leads to synthetic lethal inhibition of PRMT5?</t>
+  </si>
+  <si>
+    <t>Describe features of patient population in the paper</t>
+  </si>
+  <si>
+    <t>How many kinases and pseudokinases are encoded in human genome?</t>
+  </si>
+  <si>
+    <t>KRAS oncogene is mutated in which cancers?</t>
+  </si>
+  <si>
+    <t>List all known pseudokinases</t>
+  </si>
+  <si>
+    <t>Names of tumor suppressor proteins</t>
+  </si>
+  <si>
+    <t>PARP gene expression shows synthetic lethal relationship with mutations in which genes?</t>
+  </si>
+  <si>
+    <t>Synthetic lethality mechanims for BRAF gene can be harnessed in combination with which gene?</t>
+  </si>
+  <si>
     <t>Synthetic lethality was discovered in which model organism?</t>
   </si>
   <si>
-    <t>PARP gene expression shows synthetic lethal relationship with mutations in which genes?</t>
-  </si>
-  <si>
-    <t>Synthetic lethality mechanims for BRAF gene can be harnessed in combination with which gene?</t>
-  </si>
-  <si>
-    <t>Names of tumor suppressor proteins</t>
+    <t>What is Project Achilles?</t>
+  </si>
+  <si>
+    <t>What is the difference between pseudokinases and kinases?</t>
+  </si>
+  <si>
+    <t>What is the effect of SMARCA4 mutations on overall survival of NSCLC patients?</t>
+  </si>
+  <si>
+    <t>What is the role of SMARCA2 and SMARCA4 in cancer?</t>
+  </si>
+  <si>
+    <t>Which compounds are selectively lethal to MSH2 deficient cells?</t>
+  </si>
+  <si>
+    <t>Which drugs target BRAF mutations?</t>
+  </si>
+  <si>
+    <t>Which drugs target ERBB2 in breast cancer?</t>
+  </si>
+  <si>
+    <t>Which gene is synthetic lethal partner of ARID1A?</t>
+  </si>
+  <si>
+    <t>Which genes are targeted by Imatinib?</t>
   </si>
   <si>
     <t>Which model organisms was synthetic lethality first observed in?</t>
   </si>
   <si>
-    <t>Which drugs target ERBB2 in breast cancer?</t>
-  </si>
-  <si>
-    <t>KRAS oncogene is mutated in which cancers?</t>
-  </si>
-  <si>
-    <t>Which compounds are selectively lethal to MSH2 deficient cells?</t>
-  </si>
-  <si>
-    <t>Which genes are targeted by Imatinib?</t>
-  </si>
-  <si>
-    <t>Which drugs target BRAF mutations?</t>
-  </si>
-  <si>
-    <t>Deletion of which gene leads to synthetic lethal inhibition of PRMT5?</t>
-  </si>
-  <si>
-    <t>Which gene is synthetic lethal partner of ARID1A?</t>
-  </si>
-  <si>
-    <t>What is Project Achilles?</t>
-  </si>
-  <si>
-    <t>What is the difference between pseudokinases and kinases?</t>
+    <t>Which mutations are found in the Helicase domain of SMARCA4?</t>
   </si>
   <si>
     <t>Which proteins have both kinase and pseudokinase domains?</t>
   </si>
   <si>
-    <t>How many kinases and pseudokinases are encoded in human genome?</t>
-  </si>
-  <si>
     <t>Which Receptor Protein Kinases have been classified as pseudokinases?</t>
   </si>
   <si>
-    <t>List all known pseudokinases</t>
-  </si>
-  <si>
     <t>Which SMARCA4 mutations rescue depletion or knockdown of SMARCA2?</t>
   </si>
   <si>
-    <t>Which mutations are found in the Helicase domain of SMARCA4?</t>
-  </si>
-  <si>
-    <t>What is the effect of SMARCA4 mutations on overall survival of NSCLC patients?</t>
-  </si>
-  <si>
-    <t>What is the role of SMARCA2 and SMARCA4 in cancer?</t>
-  </si>
-  <si>
-    <t>Describe features of patient population in the paper</t>
+    <t>RAG</t>
   </si>
 </sst>
 </file>
@@ -464,210 +470,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
       <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/files/questions_rag.xlsx
+++ b/files/questions_rag.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_977A3EC697D9AECF8A160B33532A7CA2739C697F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66D282C8-3A5D-A347-AD85-852D80B71B71}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +188,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +240,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -260,6 +274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -294,9 +309,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,14 +485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -498,7 +519,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -509,7 +530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -520,7 +541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -531,7 +552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -542,7 +563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -553,7 +574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -564,7 +585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -575,7 +596,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -586,7 +607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -597,7 +618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -608,7 +629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -619,7 +640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -630,7 +651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -641,7 +662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -652,7 +673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -663,7 +684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -674,7 +695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -685,7 +706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -696,7 +717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -707,7 +728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -718,7 +739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -729,7 +750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -740,7 +761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>

--- a/files/questions_rag.xlsx
+++ b/files/questions_rag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc550e96591139bd/SM_RK Shared folder/Coding_Analysis/Galen/Galen Evals/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_977A3EC697D9AECF8A160B33532A7CA2739C697F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66D282C8-3A5D-A347-AD85-852D80B71B71}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_977A3EC697D9AECF8A160B33532A7CA2739C697F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C38FEC-CCF2-4846-A1F1-33BE8642B0A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38860" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="133">
   <si>
     <t>Category</t>
   </si>
@@ -119,15 +119,322 @@
   </si>
   <si>
     <t>RAG</t>
+  </si>
+  <si>
+    <t>What are the synonyms of synthetic lethality in literature?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which Receptor Protein Kinases have been classified as pseudokinases? </t>
+  </si>
+  <si>
+    <t>What is an example of a meditation state in EEG?</t>
+  </si>
+  <si>
+    <t>What happens to the brain during sleep?</t>
+  </si>
+  <si>
+    <t>How does stress impact the body? How does it impact sleep?</t>
+  </si>
+  <si>
+    <t>List all the EEG changes that can be induced by meditation?</t>
+  </si>
+  <si>
+    <t>What is the most reported change in the brain by meditation?</t>
+  </si>
+  <si>
+    <t>What was sleep fragmentation chosen?</t>
+  </si>
+  <si>
+    <t>What is the impact of sleep fragmentation on brain physiology?</t>
+  </si>
+  <si>
+    <t>What is the impact of sleep fragmentation on neuroinflammation?</t>
+  </si>
+  <si>
+    <t>How much sleep was reduced using the sleep fragmentation protocol?</t>
+  </si>
+  <si>
+    <t>How did age impact the severity of the sleep fragmentation?</t>
+  </si>
+  <si>
+    <t>How is the EEG different between species?</t>
+  </si>
+  <si>
+    <t>When do spiny mice sleep?</t>
+  </si>
+  <si>
+    <t>What are the differences between in bout durations between the sexes of spiny mice?</t>
+  </si>
+  <si>
+    <t>How does group housing change the amount of sleep of the mice?</t>
+  </si>
+  <si>
+    <t>How does the Piezo system measure sleep?</t>
+  </si>
+  <si>
+    <t>Why should you do meditation as a classroom activity?</t>
+  </si>
+  <si>
+    <t>How does meditation impact performance?</t>
+  </si>
+  <si>
+    <t>How was performance measured?</t>
+  </si>
+  <si>
+    <t>What was the change in attention before and after meditation?</t>
+  </si>
+  <si>
+    <t>What was the difference in reaction time between control and meditation groups?</t>
+  </si>
+  <si>
+    <t>RenG</t>
+  </si>
+  <si>
+    <t>What are the key inducers of systemic acquired resistance (SAR) in plants, and how do they operate in terms of concentration-dependent effects?</t>
+  </si>
+  <si>
+    <t>What genetic evidence supports the role of nitric oxide (NO) in SAR, and how does NO's concentration affect SAR induction?</t>
+  </si>
+  <si>
+    <t>How does the absence of NO affect SAR signal generation and perception, and what is the relationship between NO and salicylic acid (SA) in SAR?</t>
+  </si>
+  <si>
+    <t>What role do reactive oxygen species (ROS) play in SAR induction, and how are they related to NO in terms of SAR efficacy?</t>
+  </si>
+  <si>
+    <t>How do NO and ROS function in parallel with salicylic acid (SA) signaling pathways to ensure optimal induction of systemic acquired resistance (SAR), and what mechanisms regulate excessive ROS production during SAR?</t>
+  </si>
+  <si>
+    <t>How do individual and combined abiotic stresses affect the susceptibility of Arabidopsis plants to infection by both biotrophic bacterial and necrotrophic fungal pathogens?</t>
+  </si>
+  <si>
+    <t>What specific changes in gene expression are associated with increased susceptibility to Pst infection under heat stress and combined osmotic-heat stress?</t>
+  </si>
+  <si>
+    <t>What is the impact of individual and combined abiotic stresses on the expression levels of defense-related genes, such as PR-1, PR-5, and TN-13, in response to Pst infection?</t>
+  </si>
+  <si>
+    <t>How does osmotic stress, heat stress, and their combination influence Arabidopsis plants' susceptibility to infection by the necrotrophic fungus Bc, and what are the observed changes in gene expression?</t>
+  </si>
+  <si>
+    <t>What is the effect of individual and combined abiotic stresses on the expression of cell wall-related genes in Arabidopsis, and how does this relate to disease resistance against both Pst and Bc pathogens?</t>
+  </si>
+  <si>
+    <t>What is systemic acquired resistance (SAR) in plants, and how do silica nanoparticles (SiO2 NPs) induce SAR?</t>
+  </si>
+  <si>
+    <t>What are the differences between the effects of SiO2 NPs and soluble Si(OH)4 on SAR induction and plant stress levels?</t>
+  </si>
+  <si>
+    <t>How do SiO2 NPs induce local and systemic resistance against virulent Pseudomonas syringae infection in Arabidopsis plants, and what is the role of salicylic acid (SA) in this process?</t>
+  </si>
+  <si>
+    <t>What is the dose-dependent relationship between SiO2 NP concentration and SAR induction, and how does it affect bacterial inhibition in Arabidopsis?</t>
+  </si>
+  <si>
+    <t>What are the mechanisms underlying the protective effect of SiO2 NPs on plants against bacterial pathogens, and how does it compare to the effect of dissolved Si(OH)4?</t>
+  </si>
+  <si>
+    <t>What is the causal agent of Goss's wilt, and why has it become a significant concern in corn crops in North America?</t>
+  </si>
+  <si>
+    <t>How do different strains of Clavibacter nebraskensis affect corn plants, and what are the key symptoms associated with Goss's wilt?</t>
+  </si>
+  <si>
+    <t>What are the roles of ethylene, reactive oxygen species (ROS), and salicylic acid (SA) in limiting the spread of Goss's wilt symptoms, and how do they contribute to plant defense mechanisms?</t>
+  </si>
+  <si>
+    <t>How does priming with a less aggressive strain of Clavibacter nebraskensis affect the defense responses of susceptible corn plants when subsequently exposed to a highly aggressive strain?</t>
+  </si>
+  <si>
+    <t>What are the molecular markers and key mediators involved in the defense responses of corn plants against Goss's wilt, particularly in relation to ethylene, ROS, and SA signaling pathways?</t>
+  </si>
+  <si>
+    <t>How do the symptoms induced by the highly aggressive strain of Clavibacter nebraskensis differ between susceptible (CO447) and tolerant (CO450) corn lines?</t>
+  </si>
+  <si>
+    <t>What are the key differences in gene expression related to plant defense mechanisms between the CO447 and CO450 corn lines when challenged with the highly aggressive bacterial strain CMN14-5-1?</t>
+  </si>
+  <si>
+    <t>How does the expression of genes associated with jasmonic acid (JA) and salicylic acid (SA) pathways differ between the susceptible and tolerant corn lines in response to CMN14-5-1 infection?</t>
+  </si>
+  <si>
+    <t>What are the roles of programmed cell death (PCD)-related genes in the defense responses of corn plants against Goss’s wilt caused by CMN14-5-1?</t>
+  </si>
+  <si>
+    <t>How do exogenous treatments with SA and H2O2 contribute to restoring partial disease resistance in susceptible CO447 plants against CMN14-5-1, and what are the implications of these findings for disease management strategies?</t>
+  </si>
+  <si>
+    <t>MoElshetehy</t>
+  </si>
+  <si>
+    <t>What biases might occur when using commensurate priors?</t>
+  </si>
+  <si>
+    <t>What are some advantages to using data from past trials when analyzing new data?</t>
+  </si>
+  <si>
+    <t>How many cases do you need to obtain credible estimates in a sequential Bayesian trial?</t>
+  </si>
+  <si>
+    <t>What are alternative prior structures that could be used instead of commensurate priors when evaluating historical data?</t>
+  </si>
+  <si>
+    <t>What happened to the dynamics of RSV following the COVID-19 pandemic in the Netherlands?</t>
+  </si>
+  <si>
+    <t>What caused the epidemiology of RSV to change during the post-COVID period?</t>
+  </si>
+  <si>
+    <t>How did the age distribution of RSv change following the COVID pandemic?</t>
+  </si>
+  <si>
+    <t>Did the severity of RSV change after COVID-19?</t>
+  </si>
+  <si>
+    <t>How did the change in RSV dynamics in the Netherlands compare to other countries around the world?</t>
+  </si>
+  <si>
+    <t>How do individual level and populaiton level estimates of excess deaths differ?</t>
+  </si>
+  <si>
+    <t>Which risk groups had the largest relative increase in death rates during the pandemic?</t>
+  </si>
+  <si>
+    <t>Which risk groups were most impacted by the pandemic?</t>
+  </si>
+  <si>
+    <t>What are some biases that could affect estimates of excess deaths at an individual level?</t>
+  </si>
+  <si>
+    <t>How does themagnitude of excess deaths among veterans compare with the general US population?</t>
+  </si>
+  <si>
+    <t>How can you predict vaccine effectiveness against diseases based on immunogenicity data?</t>
+  </si>
+  <si>
+    <t>How does the relationship between immunogenicity and effectiveness differ between populations?</t>
+  </si>
+  <si>
+    <t>How can you estimate vaccine effectiveness against nasal colonization from immunogenicity data?</t>
+  </si>
+  <si>
+    <t>Which serotypes require the highest level of antibody for protection against disease?</t>
+  </si>
+  <si>
+    <t>What are the challenges when using immunogenicity data to estimate vaccine effectiveness?</t>
+  </si>
+  <si>
+    <t>How much does RSv contribute to the burden of pneumonia?</t>
+  </si>
+  <si>
+    <t>Which risk groups are most impact by RSV?</t>
+  </si>
+  <si>
+    <t>What time of year is RSV most common in the United States?</t>
+  </si>
+  <si>
+    <t>What statistical methods can be used to estimate the burden of RSV and influenza?</t>
+  </si>
+  <si>
+    <t>What are confounding factors that can make it challenging to estimate the burden of pneuonia caused by viruses?</t>
+  </si>
+  <si>
+    <t>DanW</t>
+  </si>
+  <si>
+    <t>What is the rate of acquired resistance to PD-(L)1 blockade among patients with non-small cell lung cancer?</t>
+  </si>
+  <si>
+    <t>What are the key difference in gene expression observed in relapsed tumors, particularly regarding the upregulation or stability of IFNγ response genes?</t>
+  </si>
+  <si>
+    <t>What are the main characteristics associated with the upregulation of IFNγ response genes?</t>
+  </si>
+  <si>
+    <t>What are the implications of mutations in antigen presentation genes in the context of acquired resistance to PD-(L)1 blockade?</t>
+  </si>
+  <si>
+    <t>How do murine models contribute to the understanding of acquired resistance to PD-(L)1 blockade, particularly after in vitro IFNγ treatment?</t>
+  </si>
+  <si>
+    <t>How did the classifiers developed in the study improve the ranking of neoantigens, and by what percentage?</t>
+  </si>
+  <si>
+    <t>What is the the significance of understanding the role of the mutated gene in oncogenicity when predicting neoantigen immunogenicity?</t>
+  </si>
+  <si>
+    <t>What does the term "binding promiscuity" refer to in the context of neoantigen immunogenicity?</t>
+  </si>
+  <si>
+    <t>How many cancer patients were included in the study, and what types of data were reprocessed from these patients for neoantigen immunogenicity screening?</t>
+  </si>
+  <si>
+    <t>What insights does the paper provide into machine learning methods for neoantigen ranking, and how can these insights be applied in the context of cancer immunotherapy?</t>
+  </si>
+  <si>
+    <t>What are mutational signatures, and how are they described in the context of tumor evolution?</t>
+  </si>
+  <si>
+    <t>What is the the significance of stop-gain mutations (SGMs) and how they are related to the mutational signatures of tobacco smoking, APOBEC cytidine deaminases, and reactive oxygen species?</t>
+  </si>
+  <si>
+    <t>Which cancer hallmark pathways and tumor suppressors are frequently affected by SGMs?</t>
+  </si>
+  <si>
+    <t>How do tobacco-driven SGMs in lung cancer correlate with smoking history?</t>
+  </si>
+  <si>
+    <t>What are the characteristics of APOBEC-driven SGMs, particularly their association with YTCA motifs and APOBEC3A expression?</t>
+  </si>
+  <si>
+    <t>What are the challenges in consistent interpretation and reporting of clinically relevant variants?</t>
+  </si>
+  <si>
+    <t>What is the difference between the MANE Select set and the MANE Plus Clinical set in terms of their role in variant reporting?</t>
+  </si>
+  <si>
+    <t>What is the criteria for a transcript to be included in the MANE Select set?</t>
+  </si>
+  <si>
+    <t>How much coverage has been achieved by the MANE Select transcripts in terms of human protein-coding genes?</t>
+  </si>
+  <si>
+    <t>How does the MANE Select set identify representative transcripts for each human protein-coding gene?</t>
+  </si>
+  <si>
+    <t>What is the primary function of cellular deconvolution algorithms?</t>
+  </si>
+  <si>
+    <t>How do deconvolution algorithms reconstruct tissue composition?</t>
+  </si>
+  <si>
+    <t>How does Kassandra correct for technical and biological variability?</t>
+  </si>
+  <si>
+    <t>What insights did Kassandra provide into the tumor microenvironment?</t>
+  </si>
+  <si>
+    <t>What types of data were used to validate Kassandra's performance?</t>
+  </si>
+  <si>
+    <t>AdamMSK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,6 +447,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,11 +490,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C2" sqref="C2:C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -772,6 +1087,1315 @@
         <v>32</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>106</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>106</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>132</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>121</v>
+      </c>
+      <c r="C134" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>122</v>
+      </c>
+      <c r="C135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>132</v>
+      </c>
+      <c r="B140" t="s">
+        <v>127</v>
+      </c>
+      <c r="C140" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>132</v>
+      </c>
+      <c r="B143" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
